--- a/data/gihun/dataset/부산시출산율모델.xlsx
+++ b/data/gihun/dataset/부산시출산율모델.xlsx
@@ -2693,14 +2693,18 @@
       <c r="C81" t="n">
         <v>0.4627565982404692</v>
       </c>
-      <c r="D81" t="inlineStr"/>
+      <c r="D81" t="n">
+        <v>9.300000000000001</v>
+      </c>
       <c r="E81" t="n">
         <v>1705</v>
       </c>
       <c r="F81" t="n">
         <v>74.255</v>
       </c>
-      <c r="G81" t="inlineStr"/>
+      <c r="G81" t="n">
+        <v>0.002970489554586008</v>
+      </c>
       <c r="H81" t="n">
         <v>50.6</v>
       </c>
@@ -2727,14 +2731,18 @@
       <c r="C82" t="n">
         <v>0.5601131541725601</v>
       </c>
-      <c r="D82" t="inlineStr"/>
+      <c r="D82" t="n">
+        <v>9.325000000000001</v>
+      </c>
       <c r="E82" t="n">
         <v>1414</v>
       </c>
       <c r="F82" t="n">
         <v>74.328</v>
       </c>
-      <c r="G82" t="inlineStr"/>
+      <c r="G82" t="n">
+        <v>0.002956468793227824</v>
+      </c>
       <c r="H82" t="n">
         <v>50.5</v>
       </c>
@@ -2761,14 +2769,18 @@
       <c r="C83" t="n">
         <v>0.5353159851301115</v>
       </c>
-      <c r="D83" t="inlineStr"/>
+      <c r="D83" t="n">
+        <v>9.350000000000001</v>
+      </c>
       <c r="E83" t="n">
         <v>1614</v>
       </c>
       <c r="F83" t="n">
         <v>74.623</v>
       </c>
-      <c r="G83" t="inlineStr"/>
+      <c r="G83" t="n">
+        <v>0.00294244803186964</v>
+      </c>
       <c r="H83" t="n">
         <v>50.6</v>
       </c>
@@ -2795,14 +2807,18 @@
       <c r="C84" t="n">
         <v>0.4942363112391931</v>
       </c>
-      <c r="D84" t="inlineStr"/>
+      <c r="D84" t="n">
+        <v>9.375</v>
+      </c>
       <c r="E84" t="n">
         <v>1388</v>
       </c>
       <c r="F84" t="n">
         <v>74.696</v>
       </c>
-      <c r="G84" t="inlineStr"/>
+      <c r="G84" t="n">
+        <v>0.002928427270511456</v>
+      </c>
       <c r="H84" t="n">
         <v>50.6</v>
       </c>
@@ -2829,14 +2845,18 @@
       <c r="C85" t="n">
         <v>0.4132443531827515</v>
       </c>
-      <c r="D85" t="inlineStr"/>
+      <c r="D85" t="n">
+        <v>9.4</v>
+      </c>
       <c r="E85" t="n">
         <v>1948</v>
       </c>
       <c r="F85" t="n">
         <v>74.98999999999999</v>
       </c>
-      <c r="G85" t="inlineStr"/>
+      <c r="G85" t="n">
+        <v>0.002914406509153273</v>
+      </c>
       <c r="H85" t="n">
         <v>50.5</v>
       </c>
@@ -2863,14 +2883,18 @@
       <c r="C86" t="n">
         <v>0.438164521544488</v>
       </c>
-      <c r="D86" t="inlineStr"/>
+      <c r="D86" t="n">
+        <v>9.425000000000001</v>
+      </c>
       <c r="E86" t="n">
         <v>1787</v>
       </c>
       <c r="F86" t="n">
         <v>74.76900000000001</v>
       </c>
-      <c r="G86" t="inlineStr"/>
+      <c r="G86" t="n">
+        <v>0.002900385747795089</v>
+      </c>
       <c r="H86" t="n">
         <v>50.4</v>
       </c>
@@ -2897,14 +2921,18 @@
       <c r="C87" t="n">
         <v>0.6369915579432079</v>
       </c>
-      <c r="D87" t="inlineStr"/>
+      <c r="D87" t="n">
+        <v>9.449999999999999</v>
+      </c>
       <c r="E87" t="n">
         <v>1303</v>
       </c>
       <c r="F87" t="n">
         <v>75.20999999999999</v>
       </c>
-      <c r="G87" t="inlineStr"/>
+      <c r="G87" t="n">
+        <v>0.002886364986436905</v>
+      </c>
       <c r="H87" t="n">
         <v>50.2</v>
       </c>
@@ -2931,14 +2959,18 @@
       <c r="C88" t="n">
         <v>0.3475765306122449</v>
       </c>
-      <c r="D88" t="inlineStr"/>
+      <c r="D88" t="n">
+        <v>9.475</v>
+      </c>
       <c r="E88" t="n">
         <v>1568</v>
       </c>
       <c r="F88" t="n">
         <v>75.72499999999999</v>
       </c>
-      <c r="G88" t="inlineStr"/>
+      <c r="G88" t="n">
+        <v>0.002872344225078721</v>
+      </c>
       <c r="H88" t="n">
         <v>50.2</v>
       </c>
@@ -2965,14 +2997,18 @@
       <c r="C89" t="n">
         <v>0.6276303751143641</v>
       </c>
-      <c r="D89" t="inlineStr"/>
+      <c r="D89" t="n">
+        <v>9.5</v>
+      </c>
       <c r="E89" t="n">
         <v>1093</v>
       </c>
       <c r="F89" t="n">
         <v>75.94499999999999</v>
       </c>
-      <c r="G89" t="inlineStr"/>
+      <c r="G89" t="n">
+        <v>0.002858323463720537</v>
+      </c>
       <c r="H89" t="n">
         <v>50.4</v>
       </c>
@@ -2999,14 +3035,18 @@
       <c r="C90" t="n">
         <v>0.522342064714946</v>
       </c>
-      <c r="D90" t="inlineStr"/>
+      <c r="D90" t="n">
+        <v>9.525</v>
+      </c>
       <c r="E90" t="n">
         <v>1298</v>
       </c>
       <c r="F90" t="n">
         <v>75.578</v>
       </c>
-      <c r="G90" t="inlineStr"/>
+      <c r="G90" t="n">
+        <v>0.002844302702362354</v>
+      </c>
       <c r="H90" t="n">
         <v>50.7</v>
       </c>
@@ -3033,14 +3073,18 @@
       <c r="C91" t="n">
         <v>0.3882063882063882</v>
       </c>
-      <c r="D91" t="inlineStr"/>
+      <c r="D91" t="n">
+        <v>9.550000000000001</v>
+      </c>
       <c r="E91" t="n">
         <v>2035</v>
       </c>
       <c r="F91" t="n">
         <v>75.20999999999999</v>
       </c>
-      <c r="G91" t="inlineStr"/>
+      <c r="G91" t="n">
+        <v>0.00283028194100417</v>
+      </c>
       <c r="H91" t="n">
         <v>50.9</v>
       </c>
@@ -3067,14 +3111,18 @@
       <c r="C92" t="n">
         <v>0.246159217877095</v>
       </c>
-      <c r="D92" t="inlineStr"/>
+      <c r="D92" t="n">
+        <v>9.574999999999999</v>
+      </c>
       <c r="E92" t="n">
         <v>2864</v>
       </c>
       <c r="F92" t="n">
         <v>75.431</v>
       </c>
-      <c r="G92" t="inlineStr"/>
+      <c r="G92" t="n">
+        <v>0.002816261179645986</v>
+      </c>
       <c r="H92" t="n">
         <v>51.1</v>
       </c>
@@ -3101,14 +3149,18 @@
       <c r="C93" t="n">
         <v>0.3152619589977221</v>
       </c>
-      <c r="D93" t="inlineStr"/>
+      <c r="D93" t="n">
+        <v>9.6</v>
+      </c>
       <c r="E93" t="n">
         <v>2195</v>
       </c>
       <c r="F93" t="n">
         <v>75.578</v>
       </c>
-      <c r="G93" t="inlineStr"/>
+      <c r="G93" t="n">
+        <v>0.002802240418287802</v>
+      </c>
       <c r="H93" t="n">
         <v>51.1</v>
       </c>
@@ -3135,14 +3187,18 @@
       <c r="C94" t="n">
         <v>0.3468848996832101</v>
       </c>
-      <c r="D94" t="inlineStr"/>
+      <c r="D94" t="n">
+        <v>9.608333333333333</v>
+      </c>
       <c r="E94" t="n">
         <v>1894</v>
       </c>
       <c r="F94" t="n">
         <v>76.018</v>
       </c>
-      <c r="G94" t="inlineStr"/>
+      <c r="G94" t="n">
+        <v>0.002789013795722369</v>
+      </c>
       <c r="H94" t="n">
         <v>51.2</v>
       </c>
@@ -3169,14 +3225,18 @@
       <c r="C95" t="n">
         <v>0.4143019296254257</v>
       </c>
-      <c r="D95" t="inlineStr"/>
+      <c r="D95" t="n">
+        <v>9.616666666666667</v>
+      </c>
       <c r="E95" t="n">
         <v>1762</v>
       </c>
       <c r="F95" t="n">
         <v>76.38500000000001</v>
       </c>
-      <c r="G95" t="inlineStr"/>
+      <c r="G95" t="n">
+        <v>0.002775787173156936</v>
+      </c>
       <c r="H95" t="n">
         <v>51.4</v>
       </c>
@@ -3203,14 +3263,18 @@
       <c r="C96" t="n">
         <v>0.5029821073558648</v>
       </c>
-      <c r="D96" t="inlineStr"/>
+      <c r="D96" t="n">
+        <v>9.625</v>
+      </c>
       <c r="E96" t="n">
         <v>1509</v>
       </c>
       <c r="F96" t="n">
         <v>76.60599999999999</v>
       </c>
-      <c r="G96" t="inlineStr"/>
+      <c r="G96" t="n">
+        <v>0.002762560550591503</v>
+      </c>
       <c r="H96" t="n">
         <v>51.6</v>
       </c>
@@ -3237,14 +3301,18 @@
       <c r="C97" t="n">
         <v>0.4177683765203596</v>
       </c>
-      <c r="D97" t="inlineStr"/>
+      <c r="D97" t="n">
+        <v>9.633333333333333</v>
+      </c>
       <c r="E97" t="n">
         <v>1891</v>
       </c>
       <c r="F97" t="n">
         <v>76.68000000000001</v>
       </c>
-      <c r="G97" t="inlineStr"/>
+      <c r="G97" t="n">
+        <v>0.00274933392802607</v>
+      </c>
       <c r="H97" t="n">
         <v>51.7</v>
       </c>
@@ -3271,14 +3339,18 @@
       <c r="C98" t="n">
         <v>0.3631756756756757</v>
       </c>
-      <c r="D98" t="inlineStr"/>
+      <c r="D98" t="n">
+        <v>9.641666666666666</v>
+      </c>
       <c r="E98" t="n">
         <v>1776</v>
       </c>
       <c r="F98" t="n">
         <v>76.753</v>
       </c>
-      <c r="G98" t="inlineStr"/>
+      <c r="G98" t="n">
+        <v>0.002736107305460637</v>
+      </c>
       <c r="H98" t="n">
         <v>51.7</v>
       </c>
@@ -3305,14 +3377,18 @@
       <c r="C99" t="n">
         <v>0.4860927152317881</v>
       </c>
-      <c r="D99" t="inlineStr"/>
+      <c r="D99" t="n">
+        <v>9.649999999999999</v>
+      </c>
       <c r="E99" t="n">
         <v>1510</v>
       </c>
       <c r="F99" t="n">
         <v>77.119</v>
       </c>
-      <c r="G99" t="inlineStr"/>
+      <c r="G99" t="n">
+        <v>0.002722880682895204</v>
+      </c>
       <c r="H99" t="n">
         <v>51.8</v>
       </c>
@@ -3339,14 +3415,18 @@
       <c r="C100" t="n">
         <v>0.4441227562246671</v>
       </c>
-      <c r="D100" t="inlineStr"/>
+      <c r="D100" t="n">
+        <v>9.658333333333333</v>
+      </c>
       <c r="E100" t="n">
         <v>1727</v>
       </c>
       <c r="F100" t="n">
         <v>77.119</v>
       </c>
-      <c r="G100" t="inlineStr"/>
+      <c r="G100" t="n">
+        <v>0.002709654060329771</v>
+      </c>
       <c r="H100" t="n">
         <v>51.8</v>
       </c>
@@ -3373,14 +3453,18 @@
       <c r="C101" t="n">
         <v>0.6123650637880275</v>
       </c>
-      <c r="D101" t="inlineStr"/>
+      <c r="D101" t="n">
+        <v>9.666666666666666</v>
+      </c>
       <c r="E101" t="n">
         <v>1019</v>
       </c>
       <c r="F101" t="n">
         <v>77.56</v>
       </c>
-      <c r="G101" t="inlineStr"/>
+      <c r="G101" t="n">
+        <v>0.002696427437764338</v>
+      </c>
       <c r="H101" t="n">
         <v>52</v>
       </c>
@@ -3407,14 +3491,18 @@
       <c r="C102" t="n">
         <v>0.4876943005181347</v>
       </c>
-      <c r="D102" t="inlineStr"/>
+      <c r="D102" t="n">
+        <v>9.674999999999999</v>
+      </c>
       <c r="E102" t="n">
         <v>1544</v>
       </c>
       <c r="F102" t="n">
         <v>77.70699999999999</v>
       </c>
-      <c r="G102" t="inlineStr"/>
+      <c r="G102" t="n">
+        <v>0.002683200815198905</v>
+      </c>
       <c r="H102" t="n">
         <v>52.2</v>
       </c>
@@ -3441,14 +3529,18 @@
       <c r="C103" t="n">
         <v>0.3615528531337699</v>
       </c>
-      <c r="D103" t="inlineStr"/>
+      <c r="D103" t="n">
+        <v>9.683333333333334</v>
+      </c>
       <c r="E103" t="n">
         <v>2138</v>
       </c>
       <c r="F103" t="n">
         <v>77.56</v>
       </c>
-      <c r="G103" t="inlineStr"/>
+      <c r="G103" t="n">
+        <v>0.002669974192633472</v>
+      </c>
       <c r="H103" t="n">
         <v>52.4</v>
       </c>
@@ -3475,14 +3567,18 @@
       <c r="C104" t="n">
         <v>0.2989281460897181</v>
       </c>
-      <c r="D104" t="inlineStr"/>
+      <c r="D104" t="n">
+        <v>9.691666666666666</v>
+      </c>
       <c r="E104" t="n">
         <v>2519</v>
       </c>
       <c r="F104" t="n">
         <v>77.78100000000001</v>
       </c>
-      <c r="G104" t="inlineStr"/>
+      <c r="G104" t="n">
+        <v>0.002656747570068039</v>
+      </c>
       <c r="H104" t="n">
         <v>52.6</v>
       </c>
@@ -9898,7 +9994,9 @@
       <c r="F273" t="n">
         <v>104.58</v>
       </c>
-      <c r="G273" t="inlineStr"/>
+      <c r="G273" t="n">
+        <v>0.00124972908462974</v>
+      </c>
       <c r="H273" t="n">
         <v>103.5</v>
       </c>
@@ -9928,7 +10026,9 @@
       <c r="F274" t="n">
         <v>105.14</v>
       </c>
-      <c r="G274" t="inlineStr"/>
+      <c r="G274" t="n">
+        <v>0.00124972908462974</v>
+      </c>
       <c r="H274" t="n">
         <v>103.5</v>
       </c>
@@ -9958,7 +10058,9 @@
       <c r="F275" t="n">
         <v>105.84</v>
       </c>
-      <c r="G275" t="inlineStr"/>
+      <c r="G275" t="n">
+        <v>0.00124972908462974</v>
+      </c>
       <c r="H275" t="n">
         <v>103.6</v>
       </c>
@@ -9988,7 +10090,9 @@
       <c r="F276" t="n">
         <v>106.45</v>
       </c>
-      <c r="G276" t="inlineStr"/>
+      <c r="G276" t="n">
+        <v>0.00124972908462974</v>
+      </c>
       <c r="H276" t="n">
         <v>103.6</v>
       </c>
@@ -10018,7 +10122,9 @@
       <c r="F277" t="n">
         <v>107.11</v>
       </c>
-      <c r="G277" t="inlineStr"/>
+      <c r="G277" t="n">
+        <v>0.00124972908462974</v>
+      </c>
       <c r="H277" t="n">
         <v>103.6</v>
       </c>
@@ -10048,7 +10154,9 @@
       <c r="F278" t="n">
         <v>107.81</v>
       </c>
-      <c r="G278" t="inlineStr"/>
+      <c r="G278" t="n">
+        <v>0.00124972908462974</v>
+      </c>
       <c r="H278" t="n">
         <v>103.6</v>
       </c>
@@ -10078,7 +10186,9 @@
       <c r="F279" t="n">
         <v>108.2</v>
       </c>
-      <c r="G279" t="inlineStr"/>
+      <c r="G279" t="n">
+        <v>0.00124972908462974</v>
+      </c>
       <c r="H279" t="n">
         <v>103.5</v>
       </c>
@@ -10108,7 +10218,9 @@
       <c r="F280" t="n">
         <v>108.21</v>
       </c>
-      <c r="G280" t="inlineStr"/>
+      <c r="G280" t="n">
+        <v>0.00124972908462974</v>
+      </c>
       <c r="H280" t="n">
         <v>103.1</v>
       </c>
@@ -10138,7 +10250,9 @@
       <c r="F281" t="n">
         <v>108.48</v>
       </c>
-      <c r="G281" t="inlineStr"/>
+      <c r="G281" t="n">
+        <v>0.00124972908462974</v>
+      </c>
       <c r="H281" t="n">
         <v>102.4</v>
       </c>
@@ -10168,7 +10282,9 @@
       <c r="F282" t="n">
         <v>108.81</v>
       </c>
-      <c r="G282" t="inlineStr"/>
+      <c r="G282" t="n">
+        <v>0.00124972908462974</v>
+      </c>
       <c r="H282" t="n">
         <v>101.2</v>
       </c>
@@ -10198,7 +10314,9 @@
       <c r="F283" t="n">
         <v>108.74</v>
       </c>
-      <c r="G283" t="inlineStr"/>
+      <c r="G283" t="n">
+        <v>0.00124972908462974</v>
+      </c>
       <c r="H283" t="n">
         <v>99.09999999999999</v>
       </c>
@@ -10222,13 +10340,15 @@
       </c>
       <c r="C284" t="inlineStr"/>
       <c r="D284" t="n">
-        <v>21.5</v>
+        <v>18</v>
       </c>
       <c r="E284" t="inlineStr"/>
       <c r="F284" t="n">
         <v>108.82</v>
       </c>
-      <c r="G284" t="inlineStr"/>
+      <c r="G284" t="n">
+        <v>0.00124972908462974</v>
+      </c>
       <c r="H284" t="n">
         <v>96.3</v>
       </c>
@@ -10256,7 +10376,9 @@
       <c r="F285" t="n">
         <v>109.83</v>
       </c>
-      <c r="G285" t="inlineStr"/>
+      <c r="G285" t="n">
+        <v>0.00124972908462974</v>
+      </c>
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
